--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value109.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value109.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.09340456995655</v>
+        <v>2.68826961517334</v>
       </c>
       <c r="B1">
-        <v>1.962759264400231</v>
+        <v>2.073243141174316</v>
       </c>
       <c r="C1">
-        <v>4.84088854704573</v>
+        <v>1.586147546768188</v>
       </c>
       <c r="D1">
-        <v>2.131961128347588</v>
+        <v>1.711413621902466</v>
       </c>
       <c r="E1">
-        <v>0.8855541966874728</v>
+        <v>1.51983106136322</v>
       </c>
     </row>
   </sheetData>
